--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\AnimalSurvivor\Client\Dev\AnimalSurvivor\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CA2FBB-D3FF-43DC-B2E0-7152E83AAAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,13 +80,29 @@
   </si>
   <si>
     <t>ShootingStar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\BasicWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\CottonCandy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\ShootingStar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,13 +157,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -165,6 +185,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,11 +503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,9 +520,10 @@
     <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -524,8 +548,11 @@
       <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -550,8 +577,11 @@
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -576,8 +606,11 @@
       <c r="H3" s="3">
         <v>0.1</v>
       </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2001</v>
       </c>
@@ -602,8 +635,11 @@
       <c r="H4" s="3">
         <v>0.1</v>
       </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -627,6 +663,9 @@
       </c>
       <c r="H5" s="1">
         <v>0.1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CA2FBB-D3FF-43DC-B2E0-7152E83AAAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ACF176-02BE-4C76-9D12-557D4EA51C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8205" yWindow="5355" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>projectile_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CottonCandy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t>Prefabs\PlayerWeapon\ShootingStar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectile_max_state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,17 +157,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -187,8 +176,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,7 +505,7 @@
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.375" bestFit="1" customWidth="1"/>
@@ -537,19 +526,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>14</v>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -577,7 +566,7 @@
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -586,7 +575,7 @@
         <v>2000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -606,8 +595,8 @@
       <c r="H3" s="3">
         <v>0.1</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -615,7 +604,7 @@
         <v>2001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -635,8 +624,8 @@
       <c r="H4" s="3">
         <v>0.1</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -644,7 +633,7 @@
         <v>2002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>7</v>
@@ -664,8 +653,8 @@
       <c r="H5" s="1">
         <v>0.1</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ACF176-02BE-4C76-9D12-557D4EA51C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4BAC9-884F-44BA-B720-3D6987E78F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="5355" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>projectile_max_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColdFloorboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\ColdFloorboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,9 +183,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,23 +498,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -595,7 +600,7 @@
       <c r="H3" s="3">
         <v>0.1</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -622,9 +627,9 @@
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -653,8 +658,37 @@
       <c r="H5" s="1">
         <v>0.1</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4BAC9-884F-44BA-B720-3D6987E78F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89014B9-8FAB-446C-8110-65869D713484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>Prefabs\PlayerWeapon\ShootingStar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectile_max_state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -498,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,14 +506,13 @@
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,22 +526,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -560,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
@@ -569,13 +561,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -589,22 +578,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
         <v>3</v>
       </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
       <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
         <v>0.1</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2001</v>
       </c>
@@ -618,22 +604,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
         <v>100</v>
       </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
       <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -647,27 +630,24 @@
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
         <v>0.1</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -676,19 +656,16 @@
         <v>0.1</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89014B9-8FAB-446C-8110-65869D713484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60976188-7349-44E3-B2ED-8FA94DBD26A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8205" yWindow="5355" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -581,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G3" s="3">
         <v>0.1</v>
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -607,7 +607,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -650,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>0.1</v>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60976188-7349-44E3-B2ED-8FA94DBD26A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="5355" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8205" yWindow="5355" windowWidth="28800" windowHeight="14970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,54 +58,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>increase_damage_per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrease_attack_speed_per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\BasicWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\CottonCandy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\ShootingStar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealFloorboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\ColdFloorboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\Singing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\HealFloorboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColdFloorboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShootingStar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CottonCandy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BasicWeapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>increase_damage_per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decrease_attack_speed_per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShootingStar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\PlayerWeapon\BasicWeapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\PlayerWeapon\CottonCandy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\PlayerWeapon\ShootingStar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColdFloorboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\PlayerWeapon\ColdFloorboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,11 +508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,13 +544,13 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -569,7 +584,7 @@
         <v>2000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -587,7 +602,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -595,7 +610,7 @@
         <v>2001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>100</v>
@@ -613,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -621,7 +636,7 @@
         <v>2002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>300</v>
@@ -639,7 +654,7 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -647,7 +662,7 @@
         <v>2003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -665,11 +680,64 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>500</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -717,13 +717,13 @@
         <v>16</v>
       </c>
       <c r="C8" s="3">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3">
         <v>0.5</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>0.5</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -717,10 +717,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="3">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,7 +590,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,63 +58,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>prefab_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\BasicWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\CottonCandy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\ShootingStar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealFloorboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\ColdFloorboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\Singing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\PlayerWeapon\HealFloorboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColdFloorboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShootingStar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CottonCandy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>increase_damage_per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decrease_attack_speed_per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\PlayerWeapon\BasicWeapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\PlayerWeapon\CottonCandy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\PlayerWeapon\ShootingStar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealFloorboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\PlayerWeapon\ColdFloorboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Singing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\PlayerWeapon\Singing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\PlayerWeapon\HealFloorboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColdFloorboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShootingStar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CottonCandy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicWeapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -523,11 +519,10 @@
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,16 +539,13 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -573,18 +565,15 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -596,21 +585,18 @@
         <v>3</v>
       </c>
       <c r="F3" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>100</v>
@@ -622,24 +608,21 @@
         <v>100</v>
       </c>
       <c r="F4" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -650,19 +633,16 @@
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -674,21 +654,18 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>1.2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -702,19 +679,16 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -726,13 +700,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -106,11 +106,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BasicWeapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>increase_damage_per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doughnut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +508,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -539,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
@@ -573,10 +573,10 @@
         <v>2000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -691,10 +691,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="3">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="D8" s="3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B228025-D33B-40B3-953E-21C8E8B6016E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="5355" windowWidth="28800" windowHeight="14970"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,11 +505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -622,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -631,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/weapon_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B228025-D33B-40B3-953E-21C8E8B6016E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B3E7E7-E804-4E75-94D5-8B971A35DB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="3">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -609,7 +609,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="3">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -701,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
